--- a/doors-detector/results/house20_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house20_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.7561062133444338</v>
+        <v>0.7750417158654886</v>
       </c>
       <c r="F5" t="n">
         <v>870</v>
       </c>
       <c r="G5" t="n">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="H5" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.5409070172768425</v>
+        <v>0.5500878242334125</v>
       </c>
       <c r="F6" t="n">
         <v>65</v>
       </c>
       <c r="G6" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5874918293536397</v>
+        <v>0.5747565188575797</v>
       </c>
       <c r="F7" t="n">
         <v>91</v>
       </c>
       <c r="G7" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H7" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7239043015660206</v>
+        <v>0.7159208403768615</v>
       </c>
       <c r="F8" t="n">
         <v>870</v>
       </c>
       <c r="G8" t="n">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="H8" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6096763533895204</v>
+        <v>0.5604579885720522</v>
       </c>
       <c r="F9" t="n">
         <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9" t="n">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6030540620014293</v>
+        <v>0.5682206409085779</v>
       </c>
       <c r="F10" t="n">
         <v>91</v>
       </c>
       <c r="G10" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H10" t="n">
         <v>105</v>
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7340963328069779</v>
+        <v>0.7227119011623167</v>
       </c>
       <c r="F11" t="n">
         <v>870</v>
       </c>
       <c r="G11" t="n">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="H11" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6524416375690689</v>
+        <v>0.6563526502269157</v>
       </c>
       <c r="F12" t="n">
         <v>65</v>
       </c>
       <c r="G12" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6084697968821475</v>
+        <v>0.6191669622589973</v>
       </c>
       <c r="F13" t="n">
         <v>91</v>
       </c>
       <c r="G13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14">
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7627541964725441</v>
+        <v>0.7661912677371856</v>
       </c>
       <c r="F14" t="n">
         <v>870</v>
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6322961737625473</v>
+        <v>0.6468349742655248</v>
       </c>
       <c r="F15" t="n">
         <v>65</v>
       </c>
       <c r="G15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6719430974746732</v>
+        <v>0.6824772483993889</v>
       </c>
       <c r="F16" t="n">
         <v>91</v>
@@ -952,7 +952,7 @@
         <v>77</v>
       </c>
       <c r="H16" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.6959513430441719</v>
+        <v>0.73116193215251</v>
       </c>
       <c r="F17" t="n">
         <v>870</v>
       </c>
       <c r="G17" t="n">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="H17" t="n">
-        <v>191</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.68110885878214</v>
+        <v>0.6416277971847973</v>
       </c>
       <c r="F18" t="n">
         <v>65</v>
       </c>
       <c r="G18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6342212981535267</v>
+        <v>0.6214457394897672</v>
       </c>
       <c r="F19" t="n">
         <v>91</v>
       </c>
       <c r="G19" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7371898430702742</v>
+        <v>0.7114310354070355</v>
       </c>
       <c r="F20" t="n">
         <v>870</v>
       </c>
       <c r="G20" t="n">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="H20" t="n">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6324682758446294</v>
+        <v>0.6661577398588501</v>
       </c>
       <c r="F21" t="n">
         <v>65</v>
       </c>
       <c r="G21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" t="n">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6074529852358844</v>
+        <v>0.6681107442866316</v>
       </c>
       <c r="F22" t="n">
         <v>91</v>
       </c>
       <c r="G22" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H22" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6881310553322635</v>
+        <v>0.7160377412654335</v>
       </c>
       <c r="F23" t="n">
         <v>870</v>
       </c>
       <c r="G23" t="n">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="H23" t="n">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.6854409377114369</v>
+        <v>0.7040650551282578</v>
       </c>
       <c r="F24" t="n">
         <v>65</v>
       </c>
       <c r="G24" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H24" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.677791552503615</v>
+        <v>0.7200037070350755</v>
       </c>
       <c r="F25" t="n">
         <v>91</v>
       </c>
       <c r="G25" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
